--- a/data/14-11-2025-Categories.xlsx
+++ b/data/14-11-2025-Categories.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="76">
   <si>
     <t>Id</t>
   </si>
@@ -230,6 +230,15 @@
   </si>
   <si>
     <t>Default entry for Inventory Status category</t>
+  </si>
+  <si>
+    <t>f56d10f7-5754-464f-b55f-6d72f4c8c3ce</t>
+  </si>
+  <si>
+    <t>LINK_TYPES</t>
+  </si>
+  <si>
+    <t>Default entry for Link types category</t>
   </si>
 </sst>
 </file>
@@ -324,13 +333,13 @@
     <xf numFmtId="164" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -672,7 +681,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K16"/>
+  <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -1218,38 +1227,73 @@
       </c>
     </row>
     <row r="16" ht="20" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C16" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E16" s="8" t="s">
+      <c r="C16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="F16" s="8" t="s">
+      <c r="F16" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G16" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="H16" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="I16" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="J16" s="9">
+      <c r="G16" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J16" s="3">
         <v>45962</v>
       </c>
-      <c r="K16" s="9">
+      <c r="K16" s="3">
         <v>45962</v>
+      </c>
+    </row>
+    <row r="17" ht="20" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H17" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I17" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="J17" s="9">
+        <v>45975.4060558912</v>
+      </c>
+      <c r="K17" s="9">
+        <v>45975.4060558912</v>
       </c>
     </row>
   </sheetData>
